--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-12.77967567496229</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69270901382508</v>
+        <v>-10.69484305918828</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.029329113317232</v>
+        <v>-3.966957382579249</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.779524432855894</v>
+        <v>-6.852605667318408</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.20045664051357</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05041691206672</v>
+        <v>-11.0537685415942</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.074563019635396</v>
+        <v>-3.999478662838097</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.788034429703015</v>
+        <v>-6.84928022239661</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.52663908833437</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88434423387331</v>
+        <v>-11.88639972541946</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.82451312766127</v>
+        <v>-3.759378921023682</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.621277768407951</v>
+        <v>-6.683453114603307</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.84391970968579</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73585451839633</v>
+        <v>-12.74477037663154</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.917245908689215</v>
+        <v>-3.835720138893787</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.963445103176461</v>
+        <v>-7.03359366180243</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.1432370234332</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44893988497378</v>
+        <v>-13.46793681639712</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.671005876842031</v>
+        <v>-3.592661536637142</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.526332388199753</v>
+        <v>-6.586543888968851</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.448934478272761</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13953267526914</v>
+        <v>-14.15972100625109</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.727368240575662</v>
+        <v>-3.639152304028112</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.698653278202552</v>
+        <v>-6.757555548687477</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.751373658257881</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.7541901090825</v>
+        <v>-14.78379180580764</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.548893968237252</v>
+        <v>-3.469895012890277</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.389216700538356</v>
+        <v>-6.427564055561771</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.049682388252572</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66702474011617</v>
+        <v>-15.69798803633685</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.393422871991755</v>
+        <v>-3.310666425729205</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.178954316900235</v>
+        <v>-6.1914312815084</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.332050684919662</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.3186679294574</v>
+        <v>-16.35088808675089</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.383904767825821</v>
+        <v>-3.296579107871508</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.743975647286728</v>
+        <v>-5.76128367164349</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.587379799959242</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.85179959347533</v>
+        <v>-16.90194311335914</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.236498530130826</v>
+        <v>-3.154724006581406</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.511089764338105</v>
+        <v>-5.531697049010982</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.816130552870706</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.47682613113933</v>
+        <v>-17.52024020736249</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.35545519375075</v>
+        <v>-3.288474972412479</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.914447339234965</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.010904340497699</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.37203852254803</v>
+        <v>-18.41079173895954</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.134038168091478</v>
+        <v>-3.065342855080941</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.26877423998956</v>
+        <v>-4.287967555955531</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.190526450012529</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10342692849822</v>
+        <v>-19.12847250383444</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.017411934377383</v>
+        <v>-2.947066991208788</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.706472925240267</v>
+        <v>-3.745226141651776</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.359438553634791</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.86367076991156</v>
+        <v>-19.9044402009607</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.944147407675084</v>
+        <v>-2.870987619395518</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.109385361840508</v>
+        <v>-3.148230224371909</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.541801377995941</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.72026086793718</v>
+        <v>-20.77602098574009</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.938334425213357</v>
+        <v>-2.853535579707497</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.501038417996865</v>
+        <v>-2.56282099510697</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.751092799540944</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.43352952675441</v>
+        <v>-21.49434327345423</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.859099808415231</v>
+        <v>-2.774327147515054</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.080710035263249</v>
+        <v>-2.140803705306772</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.010726607043008</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.34044643690362</v>
+        <v>-22.40668039697991</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.764376997355343</v>
+        <v>-2.675493353362865</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.855561703294086</v>
+        <v>-1.902877285764084</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.3417725673802583</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.18304086319143</v>
+        <v>-23.2519063761389</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.776343362152681</v>
+        <v>-2.695354376773763</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.382549893925365</v>
+        <v>-1.449477746052269</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2350437819212383</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.9835173512374</v>
+        <v>-24.0478398350988</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.553407629363769</v>
+        <v>-2.475429873638448</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.148106026938576</v>
+        <v>-1.201954668526596</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.694850006866918</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4336176306331</v>
+        <v>-24.504433896704</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.392869811918524</v>
+        <v>-2.317706901304175</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7576019100784127</v>
+        <v>-0.8112017979124393</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.026444312522264</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.09635000048127</v>
+        <v>-25.16627598995893</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.181651690172957</v>
+        <v>-2.117067360254723</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6125130099864045</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.212619265009976</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.66604846633614</v>
+        <v>-25.73369639511934</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.176375492127741</v>
+        <v>-2.112851638739687</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2360176571668879</v>
+        <v>-0.2795364718127853</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.254510279613531</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.10445731929418</v>
+        <v>-26.17150300214666</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.120890312684506</v>
+        <v>-2.066177579108933</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2789604104877494</v>
+        <v>-0.3142703512518846</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.15509227642471</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.38036450938072</v>
+        <v>-26.44861468409464</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.772425580249126</v>
+        <v>-1.722491537210782</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2601336790013473</v>
+        <v>-0.2912409905532884</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9295314333055574</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.29735930936417</v>
+        <v>-26.3701917900727</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.671444648430892</v>
+        <v>-1.629221971766326</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4196241122192543</v>
+        <v>-0.4490163320989293</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5992460089003817</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.21710349294439</v>
+        <v>-26.30990173548655</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.744997205795709</v>
+        <v>-1.706427281623984</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3792343579525294</v>
+        <v>-0.3935966141699029</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.183463508186012</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.38495990767816</v>
+        <v>-26.46232232516992</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.462151095203059</v>
+        <v>-1.4233193249745</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7143449414893498</v>
+        <v>-0.7255126758133421</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2921715139380603</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.29988612381263</v>
+        <v>-26.39519808850039</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.372076051651984</v>
+        <v>-1.34170190905918</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7874523605575482</v>
+        <v>-0.7937366659215767</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.8158804706240074</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.11315060838109</v>
+        <v>-26.19966454555921</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.451755806746729</v>
+        <v>-1.42195772547896</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9293729233618587</v>
+        <v>-0.931179661154017</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.371592789476338</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.77620710244642</v>
+        <v>-25.85802090290437</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.364377777581049</v>
+        <v>-1.336464987922489</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.412570544341443</v>
+        <v>-1.409952083773097</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.955071062842441</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.79234991185027</v>
+        <v>-25.88513506208959</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.196351162910337</v>
+        <v>-1.172850479309439</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.705523912727905</v>
+        <v>-1.711768941183408</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.561307581950595</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.44196061089716</v>
+        <v>-25.52991470138787</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.166697096973827</v>
+        <v>-1.148079842332893</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.20655325017792</v>
+        <v>-2.217328215416661</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.185879195276598</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.8934454910402</v>
+        <v>-24.96667074083398</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.187252012435337</v>
+        <v>-1.172457710224187</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.311448780545829</v>
+        <v>-2.315114625341513</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.828605454239888</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.47906101379673</v>
+        <v>-24.55919899949094</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.354702565781013</v>
+        <v>-1.340445047986374</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522326502417511</v>
+        <v>-2.516618258378519</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.479613263957857</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.82994463890395</v>
+        <v>-23.90241053513291</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.35399558142756</v>
+        <v>-1.340445047986374</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.714613154253942</v>
+        <v>-2.69130885519567</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.139476078955251</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.07022448960427</v>
+        <v>-23.13810807983862</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.334370219467813</v>
+        <v>-1.324852115301878</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.846020597876346</v>
+        <v>-2.839919584752102</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.792928510671355</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.68769358517472</v>
+        <v>-22.7467398709909</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.4104234066754</v>
+        <v>-1.398993826294573</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.157407928663959</v>
+        <v>-3.157499574783851</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.442377353981161</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.04926052940079</v>
+        <v>-22.12963417654615</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.322259839339216</v>
+        <v>-1.301796569997598</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.386091182400389</v>
+        <v>-3.388617996848842</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.074993512948718</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.56133658709534</v>
+        <v>-21.64101634219009</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.490482838552555</v>
+        <v>-1.467977169967627</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.617314342888112</v>
+        <v>-3.619762603519515</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.694075248240195</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.1066409094022</v>
+        <v>-21.14562978726486</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.403471393866443</v>
+        <v>-1.370766821367811</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.620417218661602</v>
+        <v>-3.621870464277033</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.294553696771541</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.28022856942676</v>
+        <v>-20.34944757455097</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.129436403086275</v>
+        <v>-1.093498031785737</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.730602039377569</v>
+        <v>-3.739426251492892</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.876122997002</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45982559645568</v>
+        <v>-19.505295164225</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.137488169333936</v>
+        <v>-1.101340321187931</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.869969603127742</v>
+        <v>-3.875861139406519</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.439478045694852</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.03475780009336</v>
+        <v>-19.08200792104915</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.157990715584079</v>
+        <v>-1.117771161254297</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.095615442604891</v>
+        <v>-4.106691530808991</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.977610663599057</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54750156523285</v>
+        <v>-18.58092621438777</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.14715028883113</v>
+        <v>-1.109143333681599</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.208379446980678</v>
+        <v>-4.214205521745246</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.49485711912399</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09373544104146</v>
+        <v>-18.11089945006696</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.111133363713542</v>
+        <v>-1.073414439226529</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.345691519184701</v>
+        <v>-4.33681493785801</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.97666993383491</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.33140992347628</v>
+        <v>-17.35934889774052</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.203748314015912</v>
+        <v>-1.159993837918863</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.65181574422994</v>
+        <v>-4.653936697290299</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.43064577164863</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.48601374438034</v>
+        <v>-16.51977879340915</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.129344756966383</v>
+        <v>-1.088627695128615</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.602824346996201</v>
+        <v>-4.593463350464367</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.83943557347919</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85527896267735</v>
+        <v>-15.86503272829443</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.076399484274442</v>
+        <v>-1.020495351140272</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.832201492783241</v>
+        <v>-4.832397877325867</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.21071228802323</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.97149615164947</v>
+        <v>-14.9981128033267</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.034425561363869</v>
+        <v>-0.9861673330892664</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954601432050539</v>
+        <v>-4.950883218043488</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.53267677523027</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17763127653857</v>
+        <v>-14.19793743824608</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.035067084203113</v>
+        <v>-0.9887857936576117</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.137959133348912</v>
+        <v>-5.138011502560279</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.80887368855317</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.46152158800468</v>
+        <v>-13.50624489451201</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9813755502491947</v>
+        <v>-0.9315724302392687</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.037698278186974</v>
+        <v>-5.043341060711758</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.03600835768353</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.76328289284974</v>
+        <v>-12.80210157077546</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9770812749171085</v>
+        <v>-0.9210331264516792</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.117862448486862</v>
+        <v>-5.122981538897977</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.21154633337742</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39879318173609</v>
+        <v>-12.43148466193188</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.174316817227712</v>
+        <v>-1.119054206932786</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.288088570034985</v>
+        <v>-5.294150306250704</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.34132658937753</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.7216854633677</v>
+        <v>-11.74288190166845</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.263370661157132</v>
+        <v>-1.206170390041631</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.767672715430252</v>
+        <v>-5.770042422244605</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.41720392033744</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29864697394585</v>
+        <v>-11.32057658120574</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.27753653283188</v>
+        <v>-1.216513309286595</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.900742881513557</v>
+        <v>-5.903282788264851</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.45427903640791</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52485259909131</v>
+        <v>-10.54320800767541</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.266342613902204</v>
+        <v>-1.2048742520603</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.35655140494825</v>
+        <v>-6.363215387094688</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.44145690511826</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.05312383540108</v>
+        <v>-10.08806719168565</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.468631785109714</v>
+        <v>-1.400289964275904</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.200294770532249</v>
+        <v>-6.215481841828651</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.39855133392494</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.486410414594125</v>
+        <v>-9.507894883557398</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.457712804539714</v>
+        <v>-1.391779967428782</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.42467065663375</v>
+        <v>-6.443143895943425</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.31743494771256</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.197240721728921</v>
+        <v>-9.22423705018856</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.53610951395597</v>
+        <v>-1.474575690599857</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.306028208282028</v>
+        <v>-6.331532014217711</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.21205439822238</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.564214787028623</v>
+        <v>-8.60741938640632</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.619690775297549</v>
+        <v>-1.548573386261293</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.717545471203162</v>
+        <v>-6.724994991520104</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.08036289653806</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.990640999532605</v>
+        <v>-8.036621167112747</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.535559637236617</v>
+        <v>-1.471957230031512</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.58342792089252</v>
+        <v>-6.597161746573491</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.92716299641723</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.528377970796941</v>
+        <v>-7.570718478187083</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.526185548401942</v>
+        <v>-1.451598699112628</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.648915619706834</v>
+        <v>-6.667951828038704</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.75861148125524</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.109712310524225</v>
+        <v>-7.167933781261381</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.667778803635209</v>
+        <v>-1.596504306964852</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.82560933885877</v>
+        <v>-6.84010251810456</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.57050924296199</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.680428792646869</v>
+        <v>-6.736764971774816</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.551663169731941</v>
+        <v>-1.484434194639677</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005366656875668</v>
+        <v>-7.002355427222071</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.37762752969374</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.44060398919213</v>
+        <v>-6.490446386110582</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.710040757208301</v>
+        <v>-1.646438350003196</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.035806260982681</v>
+        <v>-7.04012672092045</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.16882894487092</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.305033193266057</v>
+        <v>-6.363254664003213</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.700941606733301</v>
+        <v>-1.637666507099239</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.089681087176384</v>
+        <v>-7.100848821500376</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.96385356776786</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.029702064504558</v>
+        <v>-6.089756457639555</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.629261248674851</v>
+        <v>-1.581474343302551</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.047811902688544</v>
+        <v>-7.050037594171638</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.752654252218</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.93353910013208</v>
+        <v>-5.998686399072509</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.911151621160055</v>
+        <v>-1.856609087521424</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.08335750490383</v>
+        <v>-7.079796398530881</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.55147971368227</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.830162276893811</v>
+        <v>-5.904722941577441</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.859122809667036</v>
+        <v>-1.808455597669556</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.822820678353481</v>
+        <v>-6.823239632044417</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.35750349901566</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.566889159049541</v>
+        <v>-5.647511559948891</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.872542420079805</v>
+        <v>-1.824938806947289</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.729446374486291</v>
+        <v>-6.723397730573414</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.17759330775015</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.654057711369753</v>
+        <v>-5.747104707665901</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.953583774670089</v>
+        <v>-1.90671333049671</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.547829949465867</v>
+        <v>-6.533637893185436</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.01558555054709</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.725777346336729</v>
+        <v>-5.81892908105561</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.041014173047136</v>
+        <v>-1.994143728873756</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.380955457445227</v>
+        <v>-6.369473507853033</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.86612354089791</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.92876040959485</v>
+        <v>-6.016897792325349</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.902196486016314</v>
+        <v>-1.855155841905993</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.282396601652713</v>
+        <v>-6.25453618120552</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.73566879212962</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.079308799971858</v>
+        <v>-6.17557650276707</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.157876068212383</v>
+        <v>-2.123299296407384</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.137412439983438</v>
+        <v>-6.113191679726246</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.60654536183479</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.557871745745471</v>
+        <v>-6.654584586837301</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.142374781647779</v>
+        <v>-2.097677659746126</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.90372792656147</v>
+        <v>-5.871547046176507</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.48540466427449</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.024586157447322</v>
+        <v>-7.107525895949657</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.193670424181662</v>
+        <v>-2.151932162722239</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.957838414206323</v>
+        <v>-5.930881362655209</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.35068482146951</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.509158470225287</v>
+        <v>-7.593734746582838</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.145765688083786</v>
+        <v>-2.098685767064939</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.586723997854756</v>
+        <v>-5.557934023905801</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.20305326372792</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.907334676550702</v>
+        <v>-7.985469539910123</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.176558784367526</v>
+        <v>-2.142256950922203</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.4254922883589</v>
+        <v>-5.39682014513552</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.02407347698326</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.283947860095795</v>
+        <v>-8.368406305727769</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.443654854641579</v>
+        <v>-2.405307499618164</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.031283049794528</v>
+        <v>-5.004587844300248</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.807210760228944</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.192553677311583</v>
+        <v>-9.266446634550285</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.369356036014784</v>
+        <v>-2.328272389697447</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.027957604872729</v>
+        <v>-4.993092802405213</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.54300724747125</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.930095465597379</v>
+        <v>-9.993553857471225</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.459326341143125</v>
+        <v>-2.417444064352444</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.858006421684284</v>
+        <v>-4.823573665210544</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.224157514363064</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.68613667779853</v>
+        <v>-10.7433893181254</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.520388841596936</v>
+        <v>-2.497123819447189</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.532715065278758</v>
+        <v>-4.495951878899191</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.854847232515628</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.82508847121165</v>
+        <v>-11.88613787936262</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.604114118269774</v>
+        <v>-2.572561668421214</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.427976642544949</v>
+        <v>-4.388346241843045</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.430786320794553</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.63996649238353</v>
+        <v>-12.69765117870417</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.746938049970164</v>
+        <v>-2.715097569459086</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.064769977109784</v>
+        <v>-4.020007393693923</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.969846431174892</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.67124718722629</v>
+        <v>-13.73415570238078</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.842616599137498</v>
+        <v>-2.812543579510053</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.744296588150014</v>
+        <v>-3.712272815399152</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.473797606736532</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.66940435587948</v>
+        <v>-14.73015264106509</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.876303094349259</v>
+        <v>-2.848665243050375</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.296304169511831</v>
+        <v>-3.257446214677588</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.966296677069383</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.03710486454324</v>
+        <v>-16.08362181653989</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.784735528274227</v>
+        <v>-2.747042788392898</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.045874600755295</v>
+        <v>-3.007370138097778</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.454357413802123</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.45862783018933</v>
+        <v>-17.51404754811836</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.021012317658857</v>
+        <v>-2.993950527685009</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.7751257779884</v>
+        <v>-2.744463604733077</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.955735865225373</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.9297182543942</v>
+        <v>-18.98156377364743</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.219740382493417</v>
+        <v>-3.188462871004534</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.647855502063981</v>
+        <v>-2.623870403257939</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.478900496562046</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.55950048134362</v>
+        <v>-20.59940582040521</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.431822596226538</v>
+        <v>-3.391498303474021</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.70572348062441</v>
+        <v>-2.691884916520705</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.032211972889994</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.03497682700047</v>
+        <v>-22.07905861066856</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.438800793641178</v>
+        <v>-3.417093755529596</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.598157120476789</v>
+        <v>-2.57571691340607</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.622530702389303</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.02653865837531</v>
+        <v>-24.07081682658603</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.656709082138867</v>
+        <v>-3.610728914558724</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.568254300786286</v>
+        <v>-2.550134553653337</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.246044276797699</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.19751740789317</v>
+        <v>-26.23558982455691</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.460730400901069</v>
+        <v>-3.419083785561538</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.726867549713798</v>
+        <v>-2.701730328257684</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.907181460853723</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.3719394330584</v>
+        <v>-28.41251247956491</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.965412490843925</v>
+        <v>-3.91530824786864</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.944029576949508</v>
+        <v>-2.931853735306702</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.589064681341084</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.41319964602044</v>
+        <v>-30.46541174975324</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.946467928631948</v>
+        <v>-3.896324408748137</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.277582176448163</v>
+        <v>-3.26625733449007</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.293556698335713</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.67860008363282</v>
+        <v>-32.73796058471721</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.099255102794891</v>
+        <v>-4.05859041016849</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.361791868326145</v>
+        <v>-3.348031858039491</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.994538317146997</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.18243754059873</v>
+        <v>-35.23307856799052</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.379980260327181</v>
+        <v>-4.329195217604126</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783822250429185</v>
+        <v>-3.778532960081127</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.694069797042758</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.58370989710255</v>
+        <v>-37.63135278714359</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.2334250223169</v>
+        <v>-4.19367679088942</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.178777750255535</v>
+        <v>-4.161325710567514</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.355359698844399</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.20690987907647</v>
+        <v>-40.25055961675078</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.35410986991193</v>
+        <v>-4.311389685739378</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.429508441977431</v>
+        <v>-4.41145415635869</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.997382383647043</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.64795665161345</v>
+        <v>-42.68786199067503</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.509266750889227</v>
+        <v>-4.466468012899623</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.941941175202589</v>
+        <v>-4.914787739108849</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.558818374160338</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.01298951385137</v>
+        <v>-45.05838052780364</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.597705256585086</v>
+        <v>-4.557367871529728</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.143785208113481</v>
+        <v>-5.130784551391646</v>
       </c>
     </row>
   </sheetData>
